--- a/coletas_consumidor_gov.xlsx
+++ b/coletas_consumidor_gov.xlsx
@@ -38,6 +38,7 @@
     <sheet name="C6" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="Inter" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="Nubank" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Consumidor" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5174,7 +5175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5243,7 +5244,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="H2" t="inlineStr">
@@ -5271,7 +5272,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="H3" t="inlineStr">
@@ -5299,7 +5300,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -5327,12 +5328,3209 @@
         <v>100</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>06:49:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>28678</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15:28:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>110728</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15:28:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>139998</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15:28:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>217182</v>
+      </c>
+      <c r="C9" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>15:28:31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>periodo_nome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>total_reclamacoes_finalizadas</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>indice_solucao_perc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>satisfacao_atendimento_nota</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reclamacoes_respondidas_perc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prazo_medio_resposta_dias</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>data_coleta</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hora_coleta</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29721</v>
+      </c>
+      <c r="C2" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>06:18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>112540</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>06:18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>142675</v>
+      </c>
+      <c r="C4" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>06:18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>219859</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>06:18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10345</v>
+      </c>
+      <c r="C6" t="n">
+        <v>85</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>06:31:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>44473</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>06:31:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72853</v>
+      </c>
+      <c r="C8" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>06:31:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>197812</v>
+      </c>
+      <c r="C9" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>06:31:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7060</v>
+      </c>
+      <c r="C10" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>06:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40074</v>
+      </c>
+      <c r="C11" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>06:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68295</v>
+      </c>
+      <c r="C12" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>06:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>250894</v>
+      </c>
+      <c r="C13" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>06:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4889</v>
+      </c>
+      <c r="C14" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>06:33:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>26968</v>
+      </c>
+      <c r="C15" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>06:33:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>46400</v>
+      </c>
+      <c r="C16" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>06:33:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>152073</v>
+      </c>
+      <c r="C17" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>06:33:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8733</v>
+      </c>
+      <c r="C18" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>06:34:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>48272</v>
+      </c>
+      <c r="C19" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>06:34:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>79242</v>
+      </c>
+      <c r="C20" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>06:34:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>224011</v>
+      </c>
+      <c r="C21" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>06:34:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5133</v>
+      </c>
+      <c r="C22" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>06:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>29575</v>
+      </c>
+      <c r="C23" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>06:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>51992</v>
+      </c>
+      <c r="C24" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>06:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>314817</v>
+      </c>
+      <c r="C25" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>06:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>899</v>
+      </c>
+      <c r="C26" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>06:36:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6733</v>
+      </c>
+      <c r="C27" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>06:36:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C28" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>06:36:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>30210</v>
+      </c>
+      <c r="C29" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>06:36:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>756</v>
+      </c>
+      <c r="C30" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>06:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4685</v>
+      </c>
+      <c r="C31" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>06:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7538</v>
+      </c>
+      <c r="C32" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>06:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>43034</v>
+      </c>
+      <c r="C33" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>06:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2809</v>
+      </c>
+      <c r="C34" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>06:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>18398</v>
+      </c>
+      <c r="C35" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>06:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>29773</v>
+      </c>
+      <c r="C36" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>06:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>162948</v>
+      </c>
+      <c r="C37" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>06:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1162</v>
+      </c>
+      <c r="C38" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>06:39:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8474</v>
+      </c>
+      <c r="C39" t="n">
+        <v>91</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>06:39:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>13064</v>
+      </c>
+      <c r="C40" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>06:39:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C41" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>06:39:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>06:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="n">
+        <v>75</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>06:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>06:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>355</v>
+      </c>
+      <c r="C45" t="n">
+        <v>87</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>06:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>674</v>
+      </c>
+      <c r="C46" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>06:41:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5605</v>
+      </c>
+      <c r="C47" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>06:41:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9543</v>
+      </c>
+      <c r="C48" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>06:41:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>38841</v>
+      </c>
+      <c r="C49" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>06:41:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>660</v>
+      </c>
+      <c r="C50" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>06:42:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3715</v>
+      </c>
+      <c r="C51" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>06:42:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6075</v>
+      </c>
+      <c r="C52" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>100</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>06:42:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>24877</v>
+      </c>
+      <c r="C53" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>06:42:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>23</v>
+      </c>
+      <c r="C54" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>06:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>96</v>
+      </c>
+      <c r="C55" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>06:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>160</v>
+      </c>
+      <c r="C56" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>06:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>469</v>
+      </c>
+      <c r="C57" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>06:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>180</v>
+      </c>
+      <c r="C58" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>100</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>06:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>704</v>
+      </c>
+      <c r="C59" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>06:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C60" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>100</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>06:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4117</v>
+      </c>
+      <c r="C61" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>100</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>06:44:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>51</v>
+      </c>
+      <c r="C62" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>06:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>323</v>
+      </c>
+      <c r="C63" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>06:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>520</v>
+      </c>
+      <c r="C64" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>100</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>06:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C65" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>06:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C66" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>06:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>12052</v>
+      </c>
+      <c r="C67" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>100</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>06:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>17388</v>
+      </c>
+      <c r="C68" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>06:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>91013</v>
+      </c>
+      <c r="C69" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>06:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>49</v>
+      </c>
+      <c r="C70" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>06:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>94</v>
+      </c>
+      <c r="C71" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>06:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>96</v>
+      </c>
+      <c r="C72" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>06:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>195</v>
+      </c>
+      <c r="C73" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>06:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>692</v>
+      </c>
+      <c r="C74" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>06:49:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5603</v>
+      </c>
+      <c r="C75" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>06:49:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>8720</v>
+      </c>
+      <c r="C76" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>06:49:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>17911</v>
+      </c>
+      <c r="C77" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>99</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>06:49:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>29721</v>
+      </c>
+      <c r="C78" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>06:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>112540</v>
+      </c>
+      <c r="C79" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>06:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>142675</v>
+      </c>
+      <c r="C80" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>06:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>219859</v>
+      </c>
+      <c r="C81" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>100</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>06:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2920</v>
+      </c>
+      <c r="C82" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>06:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>16920</v>
+      </c>
+      <c r="C83" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>06:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>27343</v>
+      </c>
+      <c r="C84" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>06:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>85619</v>
+      </c>
+      <c r="C85" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>06:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C86" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>06:52:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>8046</v>
+      </c>
+      <c r="C87" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>06:52:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>14253</v>
+      </c>
+      <c r="C88" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>06:52:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>62921</v>
+      </c>
+      <c r="C89" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>06:52:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3632</v>
+      </c>
+      <c r="C90" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>06:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>19376</v>
+      </c>
+      <c r="C91" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>06:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>32313</v>
+      </c>
+      <c r="C92" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>06:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>174425</v>
+      </c>
+      <c r="C93" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>100</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>06:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3370</v>
+      </c>
+      <c r="C94" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>06:54:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>16239</v>
+      </c>
+      <c r="C95" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>06:54:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>23609</v>
+      </c>
+      <c r="C96" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>100</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>06:54:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>48966</v>
+      </c>
+      <c r="C97" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>06:54:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>612</v>
+      </c>
+      <c r="C98" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>100</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>06:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C99" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>100</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>06:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6185</v>
+      </c>
+      <c r="C100" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>100</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>06:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>38706</v>
+      </c>
+      <c r="C101" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>06:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>350</v>
+      </c>
+      <c r="C102" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>06:56:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C103" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>06:56:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2564</v>
+      </c>
+      <c r="C104" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>06:56:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6635</v>
+      </c>
+      <c r="C105" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>06:56:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>49</v>
+      </c>
+      <c r="C106" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>100</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>06:57:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>201</v>
+      </c>
+      <c r="C107" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>06:57:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>259</v>
+      </c>
+      <c r="C108" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>06:57:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>15113</v>
+      </c>
+      <c r="C109" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>06:57:36</t>
         </is>
       </c>
     </row>

--- a/coletas_consumidor_gov.xlsx
+++ b/coletas_consumidor_gov.xlsx
@@ -5460,7 +5460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8441,7 +8441,7 @@
         <v>100</v>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" s="3" t="n">
+      <c r="G106" s="2" t="n">
         <v>46007</v>
       </c>
       <c r="H106" t="inlineStr">
@@ -8469,7 +8469,7 @@
         <v>99.5</v>
       </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" s="3" t="n">
+      <c r="G107" s="2" t="n">
         <v>46007</v>
       </c>
       <c r="H107" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>99.59999999999999</v>
       </c>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" s="3" t="n">
+      <c r="G108" s="2" t="n">
         <v>46007</v>
       </c>
       <c r="H108" t="inlineStr">
@@ -8525,12 +8525,8850 @@
         <v>99.59999999999999</v>
       </c>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" s="3" t="n">
+      <c r="G109" s="2" t="n">
         <v>46007</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>06:57:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>857</v>
+      </c>
+      <c r="C110" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>100</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>06:58:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4167</v>
+      </c>
+      <c r="C111" t="n">
+        <v>82</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>100</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>06:58:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6623</v>
+      </c>
+      <c r="C112" t="n">
+        <v>82</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>06:58:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>6675</v>
+      </c>
+      <c r="C113" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>06:58:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C114" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>06:59:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5111</v>
+      </c>
+      <c r="C115" t="n">
+        <v>83</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>06:59:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>7707</v>
+      </c>
+      <c r="C116" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>06:59:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>18354</v>
+      </c>
+      <c r="C117" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>89</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>06:59:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>21</v>
+      </c>
+      <c r="C118" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>100</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>07:00:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>88</v>
+      </c>
+      <c r="C119" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>100</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>07:00:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>183</v>
+      </c>
+      <c r="C120" t="n">
+        <v>82</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>07:00:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2622</v>
+      </c>
+      <c r="C121" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>07:00:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>32</v>
+      </c>
+      <c r="C122" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>100</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>07:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>190</v>
+      </c>
+      <c r="C123" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>100</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>07:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>319</v>
+      </c>
+      <c r="C124" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>07:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1633</v>
+      </c>
+      <c r="C125" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>07:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>213</v>
+      </c>
+      <c r="C126" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>07:02:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C127" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>07:02:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C128" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>07:02:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>6557</v>
+      </c>
+      <c r="C129" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>07:02:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>07:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>100</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>07:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>07:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>62</v>
+      </c>
+      <c r="C133" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>07:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>5004</v>
+      </c>
+      <c r="C134" t="n">
+        <v>91</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>100</v>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>07:04:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>33078</v>
+      </c>
+      <c r="C135" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>100</v>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>07:04:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>61429</v>
+      </c>
+      <c r="C136" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>100</v>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>07:04:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>618832</v>
+      </c>
+      <c r="C137" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>100</v>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>07:04:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3092</v>
+      </c>
+      <c r="C138" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>07:05:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>21707</v>
+      </c>
+      <c r="C139" t="n">
+        <v>89</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>07:05:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>39488</v>
+      </c>
+      <c r="C140" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>07:05:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>344886</v>
+      </c>
+      <c r="C141" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>100</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>07:05:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2971</v>
+      </c>
+      <c r="C142" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>07:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>21052</v>
+      </c>
+      <c r="C143" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>07:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>40334</v>
+      </c>
+      <c r="C144" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>07:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>419460</v>
+      </c>
+      <c r="C145" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>07:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>56</v>
+      </c>
+      <c r="C146" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>100</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>07:08:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>535</v>
+      </c>
+      <c r="C147" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>07:08:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>671</v>
+      </c>
+      <c r="C148" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>07:08:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>123145</v>
+      </c>
+      <c r="C149" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>07:08:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>56</v>
+      </c>
+      <c r="C150" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>100</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>07:09:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>535</v>
+      </c>
+      <c r="C151" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>07:09:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>671</v>
+      </c>
+      <c r="C152" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>07:09:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>123145</v>
+      </c>
+      <c r="C153" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>07:09:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>07:10:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>07:10:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>07:10:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>23921</v>
+      </c>
+      <c r="C157" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>07:10:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>59</v>
+      </c>
+      <c r="C158" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>07:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>428</v>
+      </c>
+      <c r="C159" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>07:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>816</v>
+      </c>
+      <c r="C160" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>07:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C161" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>07:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>27</v>
+      </c>
+      <c r="C162" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>100</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>07:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>194</v>
+      </c>
+      <c r="C163" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>100</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>07:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>432</v>
+      </c>
+      <c r="C164" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>100</v>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>07:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>5960</v>
+      </c>
+      <c r="C165" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>07:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>16</v>
+      </c>
+      <c r="C166" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>100</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>07:13:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>166</v>
+      </c>
+      <c r="C167" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>100</v>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>07:13:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>388</v>
+      </c>
+      <c r="C168" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>100</v>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>07:13:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>38570</v>
+      </c>
+      <c r="C169" t="n">
+        <v>68</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>07:13:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>29</v>
+      </c>
+      <c r="C170" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>100</v>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>07:14:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>199</v>
+      </c>
+      <c r="C171" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>99</v>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>07:14:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>384</v>
+      </c>
+      <c r="C172" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>07:14:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C173" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>07:14:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>35</v>
+      </c>
+      <c r="C174" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>07:15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>237</v>
+      </c>
+      <c r="C175" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>07:15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>465</v>
+      </c>
+      <c r="C176" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>07:15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C177" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>07:15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>15</v>
+      </c>
+      <c r="C178" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>07:16:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>57</v>
+      </c>
+      <c r="C179" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>07:16:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>113</v>
+      </c>
+      <c r="C180" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>07:16:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C181" t="n">
+        <v>70</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>07:16:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>571</v>
+      </c>
+      <c r="C182" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E182" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>07:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>5654</v>
+      </c>
+      <c r="C183" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>07:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>12818</v>
+      </c>
+      <c r="C184" t="n">
+        <v>83</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>07:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>103194</v>
+      </c>
+      <c r="C185" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>07:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>321</v>
+      </c>
+      <c r="C186" t="n">
+        <v>91</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>100</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>07:18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C187" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>100</v>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>07:18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C188" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>100</v>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>07:18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>24794</v>
+      </c>
+      <c r="C189" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E189" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>07:18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>17</v>
+      </c>
+      <c r="C190" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E190" t="n">
+        <v>100</v>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>07:19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>72</v>
+      </c>
+      <c r="C191" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>100</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>07:19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>136</v>
+      </c>
+      <c r="C192" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3</v>
+      </c>
+      <c r="E192" t="n">
+        <v>100</v>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>07:19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3213</v>
+      </c>
+      <c r="C193" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>07:19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>46</v>
+      </c>
+      <c r="C194" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>07:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>389</v>
+      </c>
+      <c r="C195" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E195" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>07:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>932</v>
+      </c>
+      <c r="C196" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>07:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C197" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>07:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>38</v>
+      </c>
+      <c r="C198" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>07:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>231</v>
+      </c>
+      <c r="C199" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E199" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>07:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>523</v>
+      </c>
+      <c r="C200" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>07:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3332</v>
+      </c>
+      <c r="C201" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>07:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C202" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>07:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C203" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>77</v>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>07:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>13158</v>
+      </c>
+      <c r="C204" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3</v>
+      </c>
+      <c r="E204" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>07:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>47656</v>
+      </c>
+      <c r="C205" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E205" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>07:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3235</v>
+      </c>
+      <c r="C206" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>07:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>18665</v>
+      </c>
+      <c r="C207" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>07:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>30868</v>
+      </c>
+      <c r="C208" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>07:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>185395</v>
+      </c>
+      <c r="C209" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3</v>
+      </c>
+      <c r="E209" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>07:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>07:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>6</v>
+      </c>
+      <c r="C211" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E211" t="n">
+        <v>100</v>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>07:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>8</v>
+      </c>
+      <c r="C212" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E212" t="n">
+        <v>100</v>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>07:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>28862</v>
+      </c>
+      <c r="C213" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E213" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>07:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>93</v>
+      </c>
+      <c r="C214" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E214" t="n">
+        <v>100</v>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>07:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>435</v>
+      </c>
+      <c r="C215" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>07:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>633</v>
+      </c>
+      <c r="C216" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>07:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>6014</v>
+      </c>
+      <c r="C217" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3</v>
+      </c>
+      <c r="E217" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>07:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C218" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>07:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>8196</v>
+      </c>
+      <c r="C219" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>07:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>14382</v>
+      </c>
+      <c r="C220" t="n">
+        <v>75</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>07:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>52598</v>
+      </c>
+      <c r="C221" t="n">
+        <v>71</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>90</v>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>07:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>132</v>
+      </c>
+      <c r="C222" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>07:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>881</v>
+      </c>
+      <c r="C223" t="n">
+        <v>80</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>07:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C224" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E224" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>07:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>16785</v>
+      </c>
+      <c r="C225" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>97</v>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>07:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>561</v>
+      </c>
+      <c r="C226" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>100</v>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>07:28:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>3798</v>
+      </c>
+      <c r="C227" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>07:28:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>6887</v>
+      </c>
+      <c r="C228" t="n">
+        <v>71</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>07:28:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>93040</v>
+      </c>
+      <c r="C229" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>07:28:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>07:29:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>6</v>
+      </c>
+      <c r="C231" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="D231" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E231" t="n">
+        <v>100</v>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>07:29:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>8</v>
+      </c>
+      <c r="C232" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>100</v>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>07:29:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>28862</v>
+      </c>
+      <c r="C233" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>07:29:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>213</v>
+      </c>
+      <c r="C234" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>07:30:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2403</v>
+      </c>
+      <c r="C235" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>07:30:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>7725</v>
+      </c>
+      <c r="C236" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>07:30:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>98884</v>
+      </c>
+      <c r="C237" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E237" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>07:30:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>176</v>
+      </c>
+      <c r="C238" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E238" t="n">
+        <v>100</v>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>07:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C239" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E239" t="n">
+        <v>100</v>
+      </c>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>07:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2291</v>
+      </c>
+      <c r="C240" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E240" t="n">
+        <v>100</v>
+      </c>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>07:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>6603</v>
+      </c>
+      <c r="C241" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>100</v>
+      </c>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>07:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>100</v>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>07:32:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>07:32:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>7</v>
+      </c>
+      <c r="C244" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2</v>
+      </c>
+      <c r="E244" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>07:32:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>194</v>
+      </c>
+      <c r="C245" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E245" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>07:32:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>100</v>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="n">
+        <v>100</v>
+      </c>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>9</v>
+      </c>
+      <c r="C247" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>19</v>
+      </c>
+      <c r="C248" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>523</v>
+      </c>
+      <c r="C249" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E249" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>07:34:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>72</v>
+      </c>
+      <c r="C250" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>07:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>502</v>
+      </c>
+      <c r="C251" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E251" t="n">
+        <v>97</v>
+      </c>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>07:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>869</v>
+      </c>
+      <c r="C252" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>07:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C253" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>07:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>146</v>
+      </c>
+      <c r="C254" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E254" t="n">
+        <v>100</v>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>07:36:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>729</v>
+      </c>
+      <c r="C255" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>07:36:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C256" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E256" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>07:36:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>16949</v>
+      </c>
+      <c r="C257" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E257" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>07:36:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>44</v>
+      </c>
+      <c r="C258" t="n">
+        <v>75</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E258" t="n">
+        <v>100</v>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>07:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>443</v>
+      </c>
+      <c r="C259" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>100</v>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>07:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>772</v>
+      </c>
+      <c r="C260" t="n">
+        <v>71</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E260" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>07:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>13763</v>
+      </c>
+      <c r="C261" t="n">
+        <v>64</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E261" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>07:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>515</v>
+      </c>
+      <c r="C262" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>07:38:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>3391</v>
+      </c>
+      <c r="C263" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>07:38:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C264" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E264" t="n">
+        <v>94</v>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>07:38:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>17068</v>
+      </c>
+      <c r="C265" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E265" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>07:38:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>13</v>
+      </c>
+      <c r="C266" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E266" t="n">
+        <v>100</v>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>07:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>70</v>
+      </c>
+      <c r="C267" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>07:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>142</v>
+      </c>
+      <c r="C268" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E268" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>07:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>142</v>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>07:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>5</v>
+      </c>
+      <c r="C270" t="n">
+        <v>80</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>80</v>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>07:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>37</v>
+      </c>
+      <c r="C271" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E271" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>07:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>68</v>
+      </c>
+      <c r="C272" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E272" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>07:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C273" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2</v>
+      </c>
+      <c r="E273" t="n">
+        <v>97</v>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>07:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>258</v>
+      </c>
+      <c r="C274" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E274" t="n">
+        <v>100</v>
+      </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>07:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2386</v>
+      </c>
+      <c r="C275" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E275" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>07:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>4035</v>
+      </c>
+      <c r="C276" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E276" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>07:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>14719</v>
+      </c>
+      <c r="C277" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E277" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>07:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>60</v>
+      </c>
+      <c r="C278" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E278" t="n">
+        <v>100</v>
+      </c>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>07:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>456</v>
+      </c>
+      <c r="C279" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>07:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>942</v>
+      </c>
+      <c r="C280" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2</v>
+      </c>
+      <c r="E280" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>07:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>3191</v>
+      </c>
+      <c r="C281" t="n">
+        <v>65</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E281" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>07:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>18</v>
+      </c>
+      <c r="C282" t="n">
+        <v>100</v>
+      </c>
+      <c r="D282" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E282" t="n">
+        <v>100</v>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>07:43:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>146</v>
+      </c>
+      <c r="C283" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E283" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>07:43:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>277</v>
+      </c>
+      <c r="C284" t="n">
+        <v>78</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E284" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>07:43:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>10375</v>
+      </c>
+      <c r="C285" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E285" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>07:43:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>07:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>07:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>07:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>993</v>
+      </c>
+      <c r="C289" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E289" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>07:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>139</v>
+      </c>
+      <c r="C290" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E290" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>07:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C291" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E291" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>07:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2318</v>
+      </c>
+      <c r="C292" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E292" t="n">
+        <v>96</v>
+      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>07:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>10221</v>
+      </c>
+      <c r="C293" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E293" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>07:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>101</v>
+      </c>
+      <c r="C294" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E294" t="n">
+        <v>100</v>
+      </c>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>07:46:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C295" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E295" t="n">
+        <v>100</v>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>07:46:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C296" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E296" t="n">
+        <v>100</v>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>07:46:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>6063</v>
+      </c>
+      <c r="C297" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E297" t="n">
+        <v>100</v>
+      </c>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>07:46:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>07:47:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>07:47:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>100</v>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="n">
+        <v>100</v>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>07:47:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+      <c r="C301" t="n">
+        <v>100</v>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="n">
+        <v>100</v>
+      </c>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>07:47:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>115</v>
+      </c>
+      <c r="C302" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E302" t="n">
+        <v>100</v>
+      </c>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>07:48:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C303" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2</v>
+      </c>
+      <c r="E303" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>07:48:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C304" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E304" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>07:48:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C305" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E305" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>07:48:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>150</v>
+      </c>
+      <c r="C306" t="n">
+        <v>86</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E306" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>07:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C307" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E307" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>07:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C308" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="D308" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E308" t="n">
+        <v>100</v>
+      </c>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>07:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>9592</v>
+      </c>
+      <c r="C309" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E309" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>07:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>7</v>
+      </c>
+      <c r="C310" t="n">
+        <v>100</v>
+      </c>
+      <c r="D310" t="n">
+        <v>5</v>
+      </c>
+      <c r="E310" t="n">
+        <v>100</v>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>07:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>99</v>
+      </c>
+      <c r="C311" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E311" t="n">
+        <v>100</v>
+      </c>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>07:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>202</v>
+      </c>
+      <c r="C312" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E312" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>07:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>566</v>
+      </c>
+      <c r="C313" t="n">
+        <v>85</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E313" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>07:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>81</v>
+      </c>
+      <c r="C314" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3</v>
+      </c>
+      <c r="E314" t="n">
+        <v>100</v>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>07:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>557</v>
+      </c>
+      <c r="C315" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E315" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>07:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C316" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E316" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>07:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>3017</v>
+      </c>
+      <c r="C317" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E317" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>07:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>35</v>
+      </c>
+      <c r="C318" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E318" t="n">
+        <v>100</v>
+      </c>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>07:53:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>235</v>
+      </c>
+      <c r="C319" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E319" t="n">
+        <v>100</v>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>07:53:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>458</v>
+      </c>
+      <c r="C320" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E320" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>07:53:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2626</v>
+      </c>
+      <c r="C321" t="n">
+        <v>74</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E321" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>07:53:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>14</v>
+      </c>
+      <c r="C322" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E322" t="n">
+        <v>100</v>
+      </c>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>07:54:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>163</v>
+      </c>
+      <c r="C323" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E323" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>07:54:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>266</v>
+      </c>
+      <c r="C324" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E324" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>07:54:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>943</v>
+      </c>
+      <c r="C325" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>07:54:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>50</v>
+      </c>
+      <c r="C326" t="n">
+        <v>88</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E326" t="n">
+        <v>98</v>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>07:55:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>269</v>
+      </c>
+      <c r="C327" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E327" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>07:55:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>476</v>
+      </c>
+      <c r="C328" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E328" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>07:55:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>12574</v>
+      </c>
+      <c r="C329" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E329" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>07:55:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>23</v>
+      </c>
+      <c r="C330" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E330" t="n">
+        <v>100</v>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>07:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>145</v>
+      </c>
+      <c r="C331" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E331" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>07:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>242</v>
+      </c>
+      <c r="C332" t="n">
+        <v>74</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E332" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>07:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>410</v>
+      </c>
+      <c r="C333" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E333" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>07:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>247</v>
+      </c>
+      <c r="C334" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E334" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>07:57:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>2471</v>
+      </c>
+      <c r="C335" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E335" t="n">
+        <v>79</v>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>07:57:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>6222</v>
+      </c>
+      <c r="C336" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E336" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>07:57:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>17166</v>
+      </c>
+      <c r="C337" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E337" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>07:57:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>231</v>
+      </c>
+      <c r="C338" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E338" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>07:58:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C339" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E339" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>07:58:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>4241</v>
+      </c>
+      <c r="C340" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E340" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>07:58:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>17927</v>
+      </c>
+      <c r="C341" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E341" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>07:58:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>191</v>
+      </c>
+      <c r="C342" t="n">
+        <v>77</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E342" t="n">
+        <v>100</v>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>07:59:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>2035</v>
+      </c>
+      <c r="C343" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E343" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>07:59:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>4117</v>
+      </c>
+      <c r="C344" t="n">
+        <v>73</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E344" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>07:59:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>21139</v>
+      </c>
+      <c r="C345" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E345" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>07:59:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>188</v>
+      </c>
+      <c r="C346" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E346" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>08:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C347" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D347" t="n">
+        <v>2</v>
+      </c>
+      <c r="E347" t="n">
+        <v>99</v>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>08:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>3565</v>
+      </c>
+      <c r="C348" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="D348" t="n">
+        <v>2</v>
+      </c>
+      <c r="E348" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>08:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>11446</v>
+      </c>
+      <c r="C349" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E349" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>08:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>93</v>
+      </c>
+      <c r="C350" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="D350" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E350" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>08:01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>977</v>
+      </c>
+      <c r="C351" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E351" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>08:01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>2092</v>
+      </c>
+      <c r="C352" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E352" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>08:01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>6231</v>
+      </c>
+      <c r="C353" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E353" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>08:01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>66</v>
+      </c>
+      <c r="C354" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D354" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E354" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>08:02:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>492</v>
+      </c>
+      <c r="C355" t="n">
+        <v>74</v>
+      </c>
+      <c r="D355" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E355" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>08:02:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>921</v>
+      </c>
+      <c r="C356" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="D356" t="n">
+        <v>2</v>
+      </c>
+      <c r="E356" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>08:02:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C357" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D357" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>08:02:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>2</v>
+      </c>
+      <c r="C358" t="n">
+        <v>100</v>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="n">
+        <v>0</v>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>08:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>98</v>
+      </c>
+      <c r="C359" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0</v>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>08:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>361</v>
+      </c>
+      <c r="C360" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E360" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>08:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1523</v>
+      </c>
+      <c r="C361" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="D361" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E361" t="n">
+        <v>90</v>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>08:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>60</v>
+      </c>
+      <c r="C362" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E362" t="n">
+        <v>100</v>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>08:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>495</v>
+      </c>
+      <c r="C363" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E363" t="n">
+        <v>100</v>
+      </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>08:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C364" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E364" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>08:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>5777</v>
+      </c>
+      <c r="C365" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E365" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>08:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>16</v>
+      </c>
+      <c r="C366" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2</v>
+      </c>
+      <c r="E366" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>08:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>131</v>
+      </c>
+      <c r="C367" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E367" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>08:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>238</v>
+      </c>
+      <c r="C368" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E368" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>08:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C369" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D369" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E369" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>08:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>9</v>
+      </c>
+      <c r="C370" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
+      <c r="E370" t="n">
+        <v>100</v>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>08:07:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>77</v>
+      </c>
+      <c r="C371" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E371" t="n">
+        <v>100</v>
+      </c>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>08:07:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>163</v>
+      </c>
+      <c r="C372" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E372" t="n">
+        <v>100</v>
+      </c>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>08:07:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C373" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D373" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E373" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>08:07:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>08:08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>08:08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>4</v>
+      </c>
+      <c r="C376" t="n">
+        <v>100</v>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="n">
+        <v>50</v>
+      </c>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>08:08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>4</v>
+      </c>
+      <c r="C377" t="n">
+        <v>100</v>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="n">
+        <v>50</v>
+      </c>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>08:08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>95</v>
+      </c>
+      <c r="C378" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E378" t="n">
+        <v>100</v>
+      </c>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>08:09:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>603</v>
+      </c>
+      <c r="C379" t="n">
+        <v>70</v>
+      </c>
+      <c r="D379" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E379" t="n">
+        <v>100</v>
+      </c>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>08:09:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>896</v>
+      </c>
+      <c r="C380" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E380" t="n">
+        <v>100</v>
+      </c>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>08:09:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>896</v>
+      </c>
+      <c r="C381" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E381" t="n">
+        <v>100</v>
+      </c>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>08:09:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>75</v>
+      </c>
+      <c r="C382" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E382" t="n">
+        <v>100</v>
+      </c>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>08:10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>507</v>
+      </c>
+      <c r="C383" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D383" t="n">
+        <v>2</v>
+      </c>
+      <c r="E383" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>08:10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>657</v>
+      </c>
+      <c r="C384" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E384" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>08:10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>657</v>
+      </c>
+      <c r="C385" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E385" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>08:10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>8</v>
+      </c>
+      <c r="C386" t="n">
+        <v>50</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2</v>
+      </c>
+      <c r="E386" t="n">
+        <v>100</v>
+      </c>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>08:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>66</v>
+      </c>
+      <c r="C387" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E387" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>08:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>85</v>
+      </c>
+      <c r="C388" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E388" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>08:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>85</v>
+      </c>
+      <c r="C389" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E389" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>08:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>64</v>
+      </c>
+      <c r="C390" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E390" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>08:12:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>332</v>
+      </c>
+      <c r="C391" t="n">
+        <v>62</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E391" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>08:12:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>460</v>
+      </c>
+      <c r="C392" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E392" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>08:12:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>460</v>
+      </c>
+      <c r="C393" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E393" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>08:12:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>26</v>
+      </c>
+      <c r="C394" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D394" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E394" t="n">
+        <v>100</v>
+      </c>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>08:13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>148</v>
+      </c>
+      <c r="C395" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E395" t="n">
+        <v>100</v>
+      </c>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>08:13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>148</v>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>08:13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>148</v>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>08:13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" t="n">
+        <v>100</v>
+      </c>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="n">
+        <v>100</v>
+      </c>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>08:14:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>16</v>
+      </c>
+      <c r="C399" t="n">
+        <v>75</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E399" t="n">
+        <v>100</v>
+      </c>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>08:14:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>27</v>
+      </c>
+      <c r="C400" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D400" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E400" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>08:14:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>27</v>
+      </c>
+      <c r="C401" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E401" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>08:14:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>2</v>
+      </c>
+      <c r="C402" t="n">
+        <v>100</v>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>08:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>39</v>
+      </c>
+      <c r="C403" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E403" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>08:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>51</v>
+      </c>
+      <c r="C404" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E404" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>08:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>51</v>
+      </c>
+      <c r="C405" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E405" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>08:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>3</v>
+      </c>
+      <c r="C406" t="n">
+        <v>100</v>
+      </c>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="n">
+        <v>0</v>
+      </c>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>08:17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>55</v>
+      </c>
+      <c r="C407" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0</v>
+      </c>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>08:17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>56</v>
+      </c>
+      <c r="C408" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0</v>
+      </c>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>08:17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>56</v>
+      </c>
+      <c r="C409" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0</v>
+      </c>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>08:17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>4</v>
+      </c>
+      <c r="C410" t="n">
+        <v>100</v>
+      </c>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="n">
+        <v>100</v>
+      </c>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>08:18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>8</v>
+      </c>
+      <c r="C411" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D411" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E411" t="n">
+        <v>100</v>
+      </c>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>08:18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>8</v>
+      </c>
+      <c r="C412" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D412" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E412" t="n">
+        <v>100</v>
+      </c>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>08:18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>8</v>
+      </c>
+      <c r="C413" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D413" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E413" t="n">
+        <v>100</v>
+      </c>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>08:18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>12</v>
+      </c>
+      <c r="C414" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D414" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E414" t="n">
+        <v>100</v>
+      </c>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>08:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>84</v>
+      </c>
+      <c r="C415" t="n">
+        <v>81</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E415" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>08:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>87</v>
+      </c>
+      <c r="C416" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E416" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>08:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>87</v>
+      </c>
+      <c r="C417" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E417" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>08:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>2</v>
+      </c>
+      <c r="C418" t="n">
+        <v>100</v>
+      </c>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="n">
+        <v>50</v>
+      </c>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>08:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>23</v>
+      </c>
+      <c r="C419" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E419" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>08:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>28</v>
+      </c>
+      <c r="C420" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E420" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>08:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>28</v>
+      </c>
+      <c r="C421" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E421" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>08:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>16</v>
+      </c>
+      <c r="C422" t="n">
+        <v>75</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E422" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>08:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>111</v>
+      </c>
+      <c r="C423" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E423" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>08:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>126</v>
+      </c>
+      <c r="C424" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E424" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>08:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>126</v>
+      </c>
+      <c r="C425" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="D425" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E425" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>08:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ultimos_30_dias</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>8</v>
+      </c>
+      <c r="C426" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D426" t="n">
+        <v>3</v>
+      </c>
+      <c r="E426" t="n">
+        <v>100</v>
+      </c>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>08:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>ultimos_6_meses</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>86</v>
+      </c>
+      <c r="C427" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D427" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E427" t="n">
+        <v>100</v>
+      </c>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>08:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>ano_2025</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>137</v>
+      </c>
+      <c r="C428" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D428" t="n">
+        <v>2</v>
+      </c>
+      <c r="E428" t="n">
+        <v>100</v>
+      </c>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>08:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>geral</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>137</v>
+      </c>
+      <c r="C429" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D429" t="n">
+        <v>2</v>
+      </c>
+      <c r="E429" t="n">
+        <v>100</v>
+      </c>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>08:22:16</t>
         </is>
       </c>
     </row>
